--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1698418.487766215</v>
+        <v>1802598.122217288</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>368.9303922288803</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>310.9299993360295</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>37.19947798743296</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>62.40697986446754</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>8.751194497889847</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>200.8052136229461</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>29.44424540141575</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>61.3979360815578</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,13 +1113,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>265.9704488802383</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>266.3770268865774</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>163.472338733543</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>64.14260046841123</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710091</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>67.96386702300485</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1780,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.4665281367395</v>
       </c>
       <c r="W16" t="n">
-        <v>166.3651772885442</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310371</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>261.9345988277395</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>37.01163236946515</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>38.19083539427204</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2327,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.5168569947381</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609172</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>26.07046444232116</v>
       </c>
       <c r="S28" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>19.67525987918641</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,19 +3006,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892511</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>19.51567534720864</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8420267255999</v>
+        <v>85.89092205732396</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>107.4021082756248</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>222.8161206669571</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.24347904696366</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>123.9815576456779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>218.9829906665628</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>142.1343012721633</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.62132134232</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189674</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189674</v>
+        <v>1904.487375535339</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.643104275813</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>1378.708694614562</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686085</v>
+        <v>936.5735814686091</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>3167.964263962573</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.7237329438971</v>
+        <v>663.2461408939907</v>
       </c>
       <c r="C4" t="n">
-        <v>775.7875500159902</v>
+        <v>663.2461408939907</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>663.2461408939907</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>515.3330473115976</v>
       </c>
       <c r="F4" t="n">
         <v>477.7578170212613</v>
@@ -4483,22 +4485,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1864.257194690041</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1575.154327815684</v>
+        <v>1548.361223971665</v>
       </c>
       <c r="V4" t="n">
-        <v>1575.154327815684</v>
+        <v>1293.676735765778</v>
       </c>
       <c r="W4" t="n">
-        <v>1575.154327815684</v>
+        <v>1293.676735765778</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.164776917667</v>
+        <v>1065.687184867761</v>
       </c>
       <c r="Y4" t="n">
-        <v>1126.372197774137</v>
+        <v>844.8946057242305</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.741330469123</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.778813528712</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4568,13 +4570,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3122.772272495085</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3122.772272495085</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>3122.772272495085</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>2770.00361722497</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533245</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y5" t="n">
-        <v>2382.341170533245</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>877.8124784996427</v>
+        <v>697.2814163499067</v>
       </c>
       <c r="C7" t="n">
-        <v>708.8762955717358</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="D7" t="n">
-        <v>558.7596561594</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="E7" t="n">
-        <v>410.8465625770069</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F7" t="n">
-        <v>263.9566150790965</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>96.2537784538155</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1865.276430834394</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1643.50981540392</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1354.406948529564</v>
       </c>
       <c r="V7" t="n">
-        <v>1326.59460854119</v>
+        <v>1099.722460323677</v>
       </c>
       <c r="W7" t="n">
-        <v>1326.59460854119</v>
+        <v>1099.722460323677</v>
       </c>
       <c r="X7" t="n">
-        <v>1098.605057643173</v>
+        <v>1099.722460323677</v>
       </c>
       <c r="Y7" t="n">
-        <v>877.8124784996427</v>
+        <v>878.9298811801465</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1458.811090838975</v>
+        <v>1561.900772669912</v>
       </c>
       <c r="C8" t="n">
-        <v>1458.811090838975</v>
+        <v>1561.900772669912</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1203.635074063161</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139988</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>2235.550262878909</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y8" t="n">
-        <v>1845.410930903097</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>526.6580321322147</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>526.6580321322147</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>376.5413927198789</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>228.6282991374858</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>228.6282991374858</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1446.505797040963</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1157.088627004002</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>929.0990761059845</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y10" t="n">
-        <v>708.3064969624544</v>
+        <v>845.4915543310558</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5027,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5233,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5358,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977512</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,16 +5600,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W19" t="n">
-        <v>1419.02150088521</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,73 +5886,73 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811333</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1870.601831589881</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.18466155292</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.195110654903</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
         <v>1132.402531511373</v>
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,40 +6001,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.6442739835331</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6212,37 +6214,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111696</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2420.62928111327</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2237.774446768174</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>2018.172981791115</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>2383.002557118213</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>2716.927329289434</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>3212.252935505192</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M30" t="n">
-        <v>3809.631423131744</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>4138.923422159307</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O30" t="n">
-        <v>4690.833152398593</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>783.5579673960132</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C31" t="n">
-        <v>614.6217844681063</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D31" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2427.089083702295</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2244.234249357199</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.63278438014</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W31" t="n">
-        <v>1413.9885622678</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X31" t="n">
-        <v>1185.999011369783</v>
+        <v>963.466348583466</v>
       </c>
       <c r="Y31" t="n">
-        <v>965.2064322262529</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>4437.229386686351</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.6673633290469</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>699.73118040114</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853355</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235158</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.5067842581</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602297</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.74706939641</v>
       </c>
       <c r="W34" t="n">
-        <v>1278.305379057304</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>1050.315828159287</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.315828159287</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3227.225672628157</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C37" t="n">
-        <v>3058.28948970025</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D37" t="n">
-        <v>2908.172850287915</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>2760.259756705521</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>2613.369809207611</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>2446.173709922491</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4401.757925742791</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V37" t="n">
-        <v>4147.073437536905</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W37" t="n">
-        <v>3857.656267499944</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X37" t="n">
-        <v>3629.666716601927</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y37" t="n">
-        <v>3408.874137458397</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168595</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>365.9405071576781</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>219.0505596597677</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797189</v>
@@ -7330,52 +7332,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7491,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>810.0653816078141</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>641.1291986799072</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>491.0125592675714</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1212.506425581584</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1212.506425581584</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>991.7138464380538</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7643,28 +7645,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>99.28295407562298</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>40.30478226780136</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="W16" t="n">
-        <v>120.1578210480468</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>24.58839950885152</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24178,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>215.1260109543628</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>180.3938179578228</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.31512318719918</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>40.3047822678005</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.69998683093525</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>267.0073229893824</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>132.6809716109911</v>
+        <v>200.632076279267</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>32.89260457059909</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>63.36835372229316</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0033420516642</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>41.54258064659095</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>67.54000767002819</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>110.0033420516647</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019907</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019907</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019907</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019905</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019905</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019904</v>
       </c>
     </row>
     <row r="14">
@@ -26314,46 +26316,46 @@
         <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.954790754</v>
-      </c>
       <c r="I2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="K2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26377,10 @@
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.740199767097476e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>91573.95495316935</v>
+      </c>
+      <c r="C4" t="n">
         <v>91573.95495316939</v>
       </c>
-      <c r="C4" t="n">
-        <v>91573.95495316938</v>
-      </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
@@ -26436,19 +26438,19 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181803</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181803</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181803</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-974049.4465837637</v>
+        <v>-974049.4465837642</v>
       </c>
       <c r="C6" t="n">
-        <v>354695.2991438287</v>
+        <v>354695.2991438292</v>
       </c>
       <c r="D6" t="n">
         <v>354695.2991438289</v>
       </c>
       <c r="E6" t="n">
-        <v>105902.0429776734</v>
+        <v>105902.0429776742</v>
       </c>
       <c r="F6" t="n">
-        <v>431314.5047850289</v>
+        <v>431314.5047850288</v>
       </c>
       <c r="G6" t="n">
         <v>431314.5047850288</v>
       </c>
       <c r="H6" t="n">
-        <v>431314.5047850288</v>
+        <v>431314.5047850289</v>
       </c>
       <c r="I6" t="n">
-        <v>431314.5047850287</v>
+        <v>431314.5047850289</v>
       </c>
       <c r="J6" t="n">
-        <v>213783.302387751</v>
+        <v>213783.3023877516</v>
       </c>
       <c r="K6" t="n">
+        <v>431314.504785029</v>
+      </c>
+      <c r="L6" t="n">
         <v>431314.5047850289</v>
-      </c>
-      <c r="L6" t="n">
-        <v>431314.5047850287</v>
       </c>
       <c r="M6" t="n">
         <v>346259.4768495169</v>
       </c>
       <c r="N6" t="n">
-        <v>431314.5047850288</v>
+        <v>431314.5047850289</v>
       </c>
       <c r="O6" t="n">
-        <v>431314.5047850287</v>
+        <v>431314.504785029</v>
       </c>
       <c r="P6" t="n">
-        <v>431314.5047850289</v>
+        <v>431314.5047850286</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26802,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.80344943460028</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>54.34289243497801</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>108.2215700354983</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>157.1419694117017</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>345.9318471227931</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>3.112756516674068</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>115.310769512905</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>128.3710892498841</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>88.71259274044462</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>115.5533431856844</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>16.35964144839426</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>101.883207790617</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29983,16 +29985,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-5.925249708871845e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-5.925249708871845e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-5.925249708871845e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-5.925249708871845e-14</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30198,7 +30200,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-6.13460853191865e-12</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31604,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31835,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>537.6437863443698</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>502.2268148619681</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192553</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>268.6704608606959</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779087</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>697.0074482175629</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>669.4669885000068</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159423</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>652.0478969157701</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>140.7358547888808</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,16 +35728,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>395.0475418999253</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>359.6305704175236</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359219</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>108.4053175402704</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334643</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066181</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>565.6657361342296</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>526.8707440555623</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>509.9138629937518</v>
+        <v>439.1903400640639</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1802598.122217288</v>
+        <v>1798585.512203293</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>310.9299993360295</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>8.276279573896701</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>37.19947798743296</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347161</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>38.18739105194077</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>200.8052136229461</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,19 +1059,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>61.3979360815578</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>77.31354443380384</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1116,10 +1116,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3770268865774</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222593</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.472338733543</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380417</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,16 +1372,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710091</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>107.1821924454413</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1581,19 +1581,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>185.4048731212358</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>117.4665281367395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>51.36569740310371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.19083539427204</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>74.53917159609172</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>26.07046444232116</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,16 +2772,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>112.5005260950196</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703221</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.67525987918641</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892511</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>85.89092205732396</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>222.8161206669571</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>57.24347904696366</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.52079624060465</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1904.487375535339</v>
+        <v>1626.299101484274</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1626.299101484274</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912086</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410104</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066533</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796419</v>
+        <v>2403.038273524208</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535339</v>
+        <v>2403.038273524208</v>
       </c>
       <c r="Y2" t="n">
-        <v>1904.487375535339</v>
+        <v>2012.898941548396</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614562</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686091</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.2461408939907</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>663.2461408939907</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>663.2461408939907</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>515.3330473115976</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971665</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765778</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1293.676735765778</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1065.687184867761</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>844.8946057242305</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1619.798686923957</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="C5" t="n">
-        <v>1250.836169983545</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3122.772272495085</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3122.772272495085</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>3122.772272495085</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W5" t="n">
-        <v>2770.00361722497</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X5" t="n">
-        <v>2396.53785896389</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y5" t="n">
-        <v>2006.398526988078</v>
+        <v>2014.778044008241</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>697.2814163499067</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C7" t="n">
-        <v>528.3452334219999</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219999</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1865.276430834394</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1643.50981540392</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U7" t="n">
-        <v>1354.406948529564</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V7" t="n">
-        <v>1099.722460323677</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W7" t="n">
-        <v>1099.722460323677</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X7" t="n">
-        <v>1099.722460323677</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y7" t="n">
-        <v>878.9298811801465</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1561.900772669912</v>
+        <v>1491.569348694471</v>
       </c>
       <c r="C8" t="n">
-        <v>1561.900772669912</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D8" t="n">
-        <v>1203.635074063161</v>
+        <v>764.3411331473092</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>378.5528805490649</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645724</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669912</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="9">
@@ -4877,16 +4877,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>294.723245171594</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>144.6066057592583</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X10" t="n">
-        <v>845.4915543310558</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y10" t="n">
-        <v>845.4915543310558</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5041,19 +5041,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>598.2542540370698</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>451.3643065391594</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>284.1682072540394</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854706</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.732795130727</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.315625093766</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5512,52 +5512,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098242</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819173</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695815</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3896878871884</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>369.499740389278</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580261</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924459</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718572</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783594</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640064</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532263</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,64 +5977,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,31 +6223,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111696</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2420.62928111327</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2237.774446768174</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2018.172981791115</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1729.097755135313</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.097755135313</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.8178837532263</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2427.089083702295</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2244.234249357199</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.63278438014</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.557557724331</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.873069518444</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.455899481483</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>963.466348583466</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.466348583466</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>4437.229386686351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>614.6217844681063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580254</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580254</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235158</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.5067842581</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602297</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.74706939641</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1413.9885622678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1185.999011369783</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>577.8620388433919</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,34 +7189,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327652</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630049</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7496,16 +7496,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,16 +7739,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>33.11252040078261</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>40.30478226780136</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>32.89260457060011</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>180.3938179578228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>211.9838267404993</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>40.3047822678005</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.2291039219467</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.69998683093525</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>200.632076279267</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>63.36835372229316</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0033420516642</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610399</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>894208.8379393388</v>
+        <v>894208.8379393389</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>894208.8379393388</v>
+        <v>894208.8379393389</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019907</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879271.5300019905</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879271.5300019904</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019907</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019907</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="F2" t="n">
         <v>544823.954790754</v>
@@ -26331,31 +26331,31 @@
         <v>544823.9547907542</v>
       </c>
       <c r="H2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="I2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907542</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>4.740199767097476e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316935</v>
+        <v>91573.95495316957</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316952</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181805</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
@@ -26438,19 +26438,19 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181805</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181803</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181803</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181803</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-974049.4465837642</v>
+        <v>-974049.4465837636</v>
       </c>
       <c r="C6" t="n">
-        <v>354695.2991438292</v>
+        <v>354695.2991438284</v>
       </c>
       <c r="D6" t="n">
-        <v>354695.2991438289</v>
+        <v>354695.2991438285</v>
       </c>
       <c r="E6" t="n">
-        <v>105902.0429776742</v>
+        <v>105554.6637233162</v>
       </c>
       <c r="F6" t="n">
-        <v>431314.5047850288</v>
+        <v>430967.1255306719</v>
       </c>
       <c r="G6" t="n">
-        <v>431314.5047850288</v>
+        <v>430967.1255306721</v>
       </c>
       <c r="H6" t="n">
-        <v>431314.5047850289</v>
+        <v>430967.1255306716</v>
       </c>
       <c r="I6" t="n">
-        <v>431314.5047850289</v>
+        <v>430967.1255306716</v>
       </c>
       <c r="J6" t="n">
-        <v>213783.3023877516</v>
+        <v>213435.9231333942</v>
       </c>
       <c r="K6" t="n">
-        <v>431314.504785029</v>
+        <v>430967.1255306717</v>
       </c>
       <c r="L6" t="n">
-        <v>431314.5047850289</v>
+        <v>430967.1255306716</v>
       </c>
       <c r="M6" t="n">
-        <v>346259.4768495169</v>
+        <v>345912.0975951595</v>
       </c>
       <c r="N6" t="n">
-        <v>431314.5047850289</v>
+        <v>430967.1255306719</v>
       </c>
       <c r="O6" t="n">
-        <v>431314.504785029</v>
+        <v>430967.125530672</v>
       </c>
       <c r="P6" t="n">
-        <v>431314.5047850286</v>
+        <v>430967.1255306719</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>54.34289243497801</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>346.4067620467862</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>108.2215700354983</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>94.35543628911191</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>327.0855007190668</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>3.112756516674068</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>128.3710892498841</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>142.2354048423654</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>115.5533431856844</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.8774149194522</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.35964144839426</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.120418212765</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -29985,16 +29985,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30200,7 +30200,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-6.13460853191865e-12</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,19 +32086,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33183,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>268.6704608606959</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779087</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>669.4669885000068</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159423</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>518.439455159358</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>332.1692388321073</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,19 +35734,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>134.6960534463657</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066204</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334643</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066181</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>526.8707440555623</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>189.5729943876629</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1798585.512203293</v>
+        <v>1800346.042506079</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>8.276279573896701</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>92.47445699814261</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>157.7822070347161</v>
+        <v>157.782207034717</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>9.099193441181052</v>
       </c>
       <c r="C5" t="n">
-        <v>38.18739105194077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>77.31354443380384</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>297.9986308222593</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>177.2979137777587</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380417</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>107.1821924454413</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>26.05480806223689</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696366</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>112.5284434523311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>54.26758323426927</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.14614278817543</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>112.5005260950196</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703221</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>180.438871079516</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>28.75188085812005</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>200.8913644505277</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>111.551214499872</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453158</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.299101484274</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.299101484274</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389511</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912086</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794322</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794322</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524208</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.038273524208</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>2012.898941548396</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4397,46 +4397,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>2246.382089998688</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>2077.445907070781</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>1927.329267658445</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>1779.416174076052</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218338</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V4" t="n">
-        <v>1767.918581386758</v>
+        <v>3166.229854907436</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>2876.812684870475</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>2648.823133972458</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>2428.030554828928</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2014.778044008241</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810557</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883006</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539435</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269321</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008241</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>2014.778044008241</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>385.564938772426</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1849.200058761417</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U7" t="n">
-        <v>1560.097191887061</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V7" t="n">
-        <v>1305.412703681174</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W7" t="n">
-        <v>1015.995533644213</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X7" t="n">
-        <v>788.0059827461959</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y7" t="n">
-        <v>567.2134036026657</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694471</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.60683175406</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473092</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490649</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678284</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734405</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758593</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064531</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995009</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>294.723245171594</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592583</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971288</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732708</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297407</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,49 +5044,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>915.1035305473698</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C13" t="n">
-        <v>746.1673476194629</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D13" t="n">
-        <v>746.1673476194629</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E13" t="n">
-        <v>598.2542540370698</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>451.3643065391594</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>284.1682072540394</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.645095638608</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2237.790261293512</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="14">
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,16 +5293,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695811</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>516.389687887188</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,52 +5512,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="20">
@@ -5740,16 +5740,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,13 +5767,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,55 +5986,55 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797186</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478291</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038298</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6250,10 +6250,10 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6448,52 +6448,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400667</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121598</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121598</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121598</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121598</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487563</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510504</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854702</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648815</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611854</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138365</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703064</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,13 +6712,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,34 +7189,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7405,28 +7405,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7499,7 +7499,7 @@
         <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N42" t="n">
         <v>1577.52840832642</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>33.11252040078261</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>40.32043864788476</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>110.0033420516642</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>32.89260457060011</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>164.3170701178255</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>62.35543909864955</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194623</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.0841272570752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.2291039219467</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>106.084127257075</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>119.8635921600923</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>24.81829093850945</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>105.8542358274163</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>39.70888054695307</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>894208.8379393389</v>
+        <v>894208.8379393388</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>894208.8379393389</v>
+        <v>894208.8379393388</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019907</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019905</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879271.5300019905</v>
+        <v>879271.5300019907</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019907</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907538</v>
-      </c>
       <c r="K2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.954790754</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="P2" t="n">
         <v>544823.954790754</v>
@@ -26368,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316957</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316952</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26435,13 +26435,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-974049.4465837636</v>
+        <v>-974049.4465837637</v>
       </c>
       <c r="C6" t="n">
-        <v>354695.2991438284</v>
+        <v>354695.2991438286</v>
       </c>
       <c r="D6" t="n">
-        <v>354695.2991438285</v>
+        <v>354695.2991438289</v>
       </c>
       <c r="E6" t="n">
-        <v>105554.6637233162</v>
+        <v>105867.3050522376</v>
       </c>
       <c r="F6" t="n">
-        <v>430967.1255306719</v>
+        <v>431279.7668595932</v>
       </c>
       <c r="G6" t="n">
-        <v>430967.1255306721</v>
+        <v>431279.7668595935</v>
       </c>
       <c r="H6" t="n">
-        <v>430967.1255306716</v>
+        <v>431279.766859593</v>
       </c>
       <c r="I6" t="n">
-        <v>430967.1255306716</v>
+        <v>431279.766859593</v>
       </c>
       <c r="J6" t="n">
-        <v>213435.9231333942</v>
+        <v>213748.5644623156</v>
       </c>
       <c r="K6" t="n">
-        <v>430967.1255306717</v>
+        <v>431279.7668595932</v>
       </c>
       <c r="L6" t="n">
-        <v>430967.1255306716</v>
+        <v>431279.766859593</v>
       </c>
       <c r="M6" t="n">
-        <v>345912.0975951595</v>
+        <v>346224.7389240811</v>
       </c>
       <c r="N6" t="n">
-        <v>430967.1255306719</v>
+        <v>431279.7668595935</v>
       </c>
       <c r="O6" t="n">
-        <v>430967.125530672</v>
+        <v>431279.766859593</v>
       </c>
       <c r="P6" t="n">
-        <v>430967.1255306719</v>
+        <v>431279.7668595931</v>
       </c>
     </row>
   </sheetData>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>346.4067620467862</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>277.2566436803264</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>94.35543628911191</v>
+        <v>94.35543628911103</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>373.6346482222995</v>
       </c>
       <c r="C5" t="n">
-        <v>327.0855007190668</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>142.2354048423654</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8774149194522</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>150.4543446923762</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>69.120418212765</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29219,7 +29219,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31159,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31208,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31226,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>518.439455159358</v>
+        <v>518.4394551593577</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629487</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066204</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236315785</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>376.3054212373396</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
